--- a/output/ADAM_24078037000109.xlsx
+++ b/output/ADAM_24078037000109.xlsx
@@ -1010,10 +1010,10 @@
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.5263268299999999</v>
+        <v>0.52279141</v>
       </c>
       <c r="C57">
-        <v>0.01485795612743046</v>
+        <v>0.01250724784875068</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_24078037000109.xlsx
+++ b/output/ADAM_24078037000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42490</v>
       </c>
@@ -411,609 +405,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42521</v>
       </c>
       <c r="B3">
         <v>0.002371939999999961</v>
       </c>
-      <c r="C3">
-        <v>0.002371939999999961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42551</v>
       </c>
       <c r="B4">
-        <v>0.03181294000000001</v>
-      </c>
-      <c r="C4">
         <v>0.02937133296049765</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42582</v>
       </c>
       <c r="B5">
-        <v>0.06492444999999991</v>
-      </c>
-      <c r="C5">
         <v>0.03209061324623419</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42613</v>
       </c>
       <c r="B6">
-        <v>0.07797739999999997</v>
-      </c>
-      <c r="C6">
         <v>0.01225716059012449</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42643</v>
       </c>
       <c r="B7">
-        <v>0.10247363</v>
-      </c>
-      <c r="C7">
         <v>0.02272425191845406</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42674</v>
       </c>
       <c r="B8">
-        <v>0.10374631</v>
-      </c>
-      <c r="C8">
         <v>0.001154385887669696</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42704</v>
       </c>
       <c r="B9">
-        <v>0.1183244400000001</v>
-      </c>
-      <c r="C9">
         <v>0.01320786295539245</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42735</v>
       </c>
       <c r="B10">
-        <v>0.1639223599999999</v>
-      </c>
-      <c r="C10">
         <v>0.04077342707452569</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42766</v>
       </c>
       <c r="B11">
-        <v>0.21846806</v>
-      </c>
-      <c r="C11">
         <v>0.04686369286693659</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42794</v>
       </c>
       <c r="B12">
-        <v>0.25979357</v>
-      </c>
-      <c r="C12">
         <v>0.03391595673012548</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42825</v>
       </c>
       <c r="B13">
-        <v>0.28057756</v>
-      </c>
-      <c r="C13">
         <v>0.01649793307009806</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42855</v>
       </c>
       <c r="B14">
-        <v>0.2780667400000001</v>
-      </c>
-      <c r="C14">
         <v>-0.001960693423364357</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42886</v>
       </c>
       <c r="B15">
-        <v>0.23323066</v>
-      </c>
-      <c r="C15">
         <v>-0.03508117267804034</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42916</v>
       </c>
       <c r="B16">
-        <v>0.2381554699999999</v>
-      </c>
-      <c r="C16">
         <v>0.00399342163614369</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42947</v>
       </c>
       <c r="B17">
-        <v>0.2693311700000001</v>
-      </c>
-      <c r="C17">
         <v>0.02517914814041911</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42978</v>
       </c>
       <c r="B18">
-        <v>0.28974634</v>
-      </c>
-      <c r="C18">
         <v>0.01608340713794965</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43008</v>
       </c>
       <c r="B19">
-        <v>0.3226141</v>
-      </c>
-      <c r="C19">
         <v>0.02548389476336865</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43039</v>
       </c>
       <c r="B20">
-        <v>0.3348163799999999</v>
-      </c>
-      <c r="C20">
         <v>0.009225880776561945</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43069</v>
       </c>
       <c r="B21">
-        <v>0.3318205999999999</v>
-      </c>
-      <c r="C21">
         <v>-0.002244338655778222</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43100</v>
       </c>
       <c r="B22">
-        <v>0.34061309</v>
-      </c>
-      <c r="C22">
         <v>0.006601857637582809</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
       <c r="B23">
-        <v>0.4187222900000001</v>
-      </c>
-      <c r="C23">
         <v>0.05826379033789686</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43159</v>
       </c>
       <c r="B24">
-        <v>0.4343367600000001</v>
-      </c>
-      <c r="C24">
         <v>0.01100600879401137</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43190</v>
       </c>
       <c r="B25">
-        <v>0.41200484</v>
-      </c>
-      <c r="C25">
         <v>-0.01556950963175485</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43220</v>
       </c>
       <c r="B26">
-        <v>0.4314257500000001</v>
-      </c>
-      <c r="C26">
         <v>0.01375413840649453</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43251</v>
       </c>
       <c r="B27">
-        <v>0.3897888199999999</v>
-      </c>
-      <c r="C27">
         <v>-0.02908773298230816</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43281</v>
       </c>
       <c r="B28">
-        <v>0.3540236800000001</v>
-      </c>
-      <c r="C28">
         <v>-0.02573422629777655</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43312</v>
       </c>
       <c r="B29">
-        <v>0.36712195</v>
-      </c>
-      <c r="C29">
         <v>0.00967359005124635</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43343</v>
       </c>
       <c r="B30">
-        <v>0.3687631899999999</v>
-      </c>
-      <c r="C30">
         <v>0.00120050738706956</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
       <c r="B31">
-        <v>0.3693972700000001</v>
-      </c>
-      <c r="C31">
         <v>0.0004632503303951818</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43404</v>
       </c>
       <c r="B32">
-        <v>0.38808544</v>
-      </c>
-      <c r="C32">
         <v>0.01364700398446095</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43434</v>
       </c>
       <c r="B33">
-        <v>0.39650067</v>
-      </c>
-      <c r="C33">
         <v>0.006062472638571847</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43465</v>
       </c>
       <c r="B34">
-        <v>0.40798179</v>
-      </c>
-      <c r="C34">
         <v>0.008221349439094805</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43496</v>
       </c>
       <c r="B35">
-        <v>0.42154968</v>
-      </c>
-      <c r="C35">
         <v>0.009636410141355523</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43524</v>
       </c>
       <c r="B36">
-        <v>0.4214337100000001</v>
-      </c>
-      <c r="C36">
         <v>-8.157998389468624e-05</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43555</v>
       </c>
       <c r="B37">
-        <v>0.43109135</v>
-      </c>
-      <c r="C37">
         <v>0.006794295036101294</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43585</v>
       </c>
       <c r="B38">
-        <v>0.4439676100000001</v>
-      </c>
-      <c r="C38">
         <v>0.008997510885660809</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43616</v>
       </c>
       <c r="B39">
-        <v>0.4672672</v>
-      </c>
-      <c r="C39">
         <v>0.01613581207683734</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43646</v>
       </c>
       <c r="B40">
-        <v>0.4555184699999999</v>
-      </c>
-      <c r="C40">
         <v>-0.008007219135001464</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43677</v>
       </c>
       <c r="B41">
-        <v>0.4553446800000001</v>
-      </c>
-      <c r="C41">
         <v>-0.0001194007520906037</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43708</v>
       </c>
       <c r="B42">
-        <v>0.4823113000000001</v>
-      </c>
-      <c r="C42">
         <v>0.0185293699634097</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43738</v>
       </c>
       <c r="B43">
-        <v>0.4803180199999999</v>
-      </c>
-      <c r="C43">
         <v>-0.001344710790506798</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43769</v>
       </c>
       <c r="B44">
-        <v>0.48068781</v>
-      </c>
-      <c r="C44">
         <v>0.0002498044305372371</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43799</v>
       </c>
       <c r="B45">
-        <v>0.4778279000000001</v>
-      </c>
-      <c r="C45">
         <v>-0.001931473995183342</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43830</v>
       </c>
       <c r="B46">
-        <v>0.4721366199999999</v>
-      </c>
-      <c r="C46">
         <v>-0.003851111485985714</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43861</v>
       </c>
       <c r="B47">
-        <v>0.49087561</v>
-      </c>
-      <c r="C47">
         <v>0.01272911069897864</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43890</v>
       </c>
       <c r="B48">
-        <v>0.5101126499999999</v>
-      </c>
-      <c r="C48">
         <v>0.01290318244591848</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43921</v>
       </c>
       <c r="B49">
-        <v>0.5257330200000001</v>
-      </c>
-      <c r="C49">
         <v>0.01034384421586032</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>0.52672231</v>
-      </c>
-      <c r="C50">
         <v>0.0006484030869304824</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43982</v>
       </c>
       <c r="B51">
-        <v>0.53476905</v>
-      </c>
-      <c r="C51">
         <v>0.005270598292363982</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44012</v>
       </c>
       <c r="B52">
-        <v>0.52846653</v>
-      </c>
-      <c r="C52">
         <v>-0.0041064940682769</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44043</v>
       </c>
       <c r="B53">
-        <v>0.5372173600000001</v>
-      </c>
-      <c r="C53">
         <v>0.005725234951660996</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44074</v>
       </c>
       <c r="B54">
-        <v>0.5233405099999999</v>
-      </c>
-      <c r="C54">
         <v>-0.009027252983924261</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44104</v>
       </c>
       <c r="B55">
-        <v>0.4982071699999999</v>
-      </c>
-      <c r="C55">
         <v>-0.01649883255582829</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44135</v>
       </c>
       <c r="B56">
-        <v>0.50398075</v>
-      </c>
-      <c r="C56">
         <v>0.003853659304006607</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.52279141</v>
-      </c>
-      <c r="C57">
-        <v>0.01250724784875068</v>
+        <v>0.01011720396022353</v>
       </c>
     </row>
   </sheetData>
